--- a/Ocean/ประเมินตัวเอง 2020/คำตอบแบบสอบถาม.xlsx
+++ b/Ocean/ประเมินตัวเอง 2020/คำตอบแบบสอบถาม.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rattapol-mac/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\my_app\Ocean\ประเมินตัวเอง 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB4CC04-34E8-1245-AC45-EE15395EA4A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D1D58C-F67E-4EBD-8A7F-3E68E3BF0F81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75120" yWindow="1280" windowWidth="27640" windowHeight="16940" xr2:uid="{15455827-685E-9D49-A379-7E31F1C4EE41}"/>
+    <workbookView xWindow="1935" yWindow="495" windowWidth="18105" windowHeight="9495" xr2:uid="{15455827-685E-9D49-A379-7E31F1C4EE41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Core Competency</t>
   </si>
@@ -153,29 +153,76 @@
     <t>7. ความรู้ด้าน application และการพัฒนา software</t>
   </si>
   <si>
+    <t>ศึกษารายละเอียด และ ข้อกำหนดต่างๆ สำหรับการ พัฒนา ที่บริษัทได้วางไว้</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. ความรู้ด้านกระบวนการปฏิบัติงาน ระดับ 2 </t>
+  </si>
+  <si>
+    <t>ยังต้องศึกษาระบบงานอื่น ๆ ที่มีการพัฒนาไว้ก่อนหน้านี้ เพิ่มติม</t>
+  </si>
+  <si>
+    <t>9. ความละเอียดรอบคอบ ระดับ 3</t>
+  </si>
+  <si>
+    <t>Leadership Competency</t>
+  </si>
+  <si>
+    <t>1. การมีวิสัยทัศน์ ระดับ 1</t>
+  </si>
+  <si>
+    <t>เข้าใจถึงหน้าที่ SA ที่ต้องทำความเข้าใจระบบ
+และทำการออกแบบระบบให้มีความเหมาะสมกับระบบเดิมที่มีอยู่ โดยคำนึงถึงการใช้งานต้องง่ายสำหรับ user และต้องช่วย ตัวแทนให้สามารถทำงานได้ง่ายขึ้น</t>
+  </si>
+  <si>
+    <t>ยังต้องทำความเข้าใจระบบที่มีการใช้งานอยู่</t>
+  </si>
+  <si>
+    <t>2. การมุ่งเน้นเป้าหมายระดับ 1</t>
+  </si>
+  <si>
+    <t>วางแผนในการทำงานแยก ของตัวเองและ dev
+โดยพยายามผลักดันให้ได้งาน ตามที่วางแผนไว้</t>
+  </si>
+  <si>
+    <t>ต้องทำความเข้าใจเรื่องระบบงานเดิมที่มีอยู่แล้ว
+และรายละเอียดของงานขายประกัน</t>
+  </si>
+  <si>
+    <t>3. ผู้นำการเปลี่ยนแปลง</t>
+  </si>
+  <si>
+    <t>ปรับการทำงานในรูปแบบ scrum</t>
+  </si>
+  <si>
+    <t>เรียนรู้และพัฒนาการใช้ scrum ให้เกิดผลในการทำงาน</t>
+  </si>
+  <si>
+    <t>4. การตัดสินใจและการคิดเชิงรุก</t>
+  </si>
+  <si>
+    <t>สามารถหาปัญหาที่แท้จริงได้เร็ว และสามารถแก้ไขปัญหาในเบื้องต้นได้</t>
+  </si>
+  <si>
+    <t>ยังต้องศึกษาหาแนวทางแก้ไขปัญหาในระยะยาวจากทางหัวหน้างาน และผู้บังคับบัญชา</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ยังต้องศึกษาเรื่องระบบประกันเพิ่ม
+</t>
+  </si>
+  <si>
+    <t>มีการวางแผนการทำงาน และปรับแผนการทำงานทุกวัน
+ก่อนส่งงานให้ user จะทำการทดสอบระบบทั้งหมด</t>
+  </si>
+  <si>
+    <t>สามารถจัดเตรียม เอกสาร, ข้อมูลต่าง ๆเพือให้สามารถออกแบบ ระบบได้อย่างถูกต้อง
+ศึกษารายละเอียดต่าง ๆ ในการติดต่อกับทางแผนกอื่น ๆ เพื่อให้สามาตถติดต่องานได้สะดวก</t>
+  </si>
+  <si>
     <t>มีความเข้าใจใน การทำ web แบบ single page application
-การทำ service แบบ REST</t>
-  </si>
-  <si>
-    <t>ศึกษารายละเอียด และ ข้อกำหนดต่างๆ สำหรับการ พัฒนา ที่บริษัทได้วางไว้</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8. ความรู้ด้านกระบวนการปฏิบัติงาน ระดับ 2 </t>
-  </si>
-  <si>
-    <t>มีความเข้าใจในงาน ของตัวเอง</t>
-  </si>
-  <si>
-    <t>ยังต้องศึกษาระบบงานอื่น ๆ ที่มีการพัฒนาไว้ก่อนหน้านี้ เพิ่มติม</t>
-  </si>
-  <si>
-    <t>9. ความละเอียดรอบคอบ ระดับ 3</t>
-  </si>
-  <si>
-    <t>มีการวางแผนการทำงาน และปรับแผนการทำงานทุกวัน</t>
-  </si>
-  <si>
-    <t>ยังต้องศึกษาเรื่องระบบประกันเพิ่ม</t>
+การทำ service แบบ REST
+การทำ micro service
+การบริหาร และจัดการข้อมูล</t>
   </si>
 </sst>
 </file>
@@ -533,21 +580,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54576AF8-ED06-9744-A9ED-A47F85BB2AAE}">
-  <dimension ref="B1:K18"/>
+  <dimension ref="B1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4" customWidth="1"/>
     <col min="8" max="8" width="40.5" customWidth="1"/>
-    <col min="9" max="9" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="58.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
         <v>2</v>
       </c>
@@ -558,12 +605,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -577,7 +624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" ht="63" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -591,7 +638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -605,7 +652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>13</v>
       </c>
@@ -619,12 +666,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>17</v>
       </c>
@@ -638,7 +685,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>20</v>
       </c>
@@ -652,7 +699,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" ht="63" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>22</v>
       </c>
@@ -670,7 +717,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>26</v>
       </c>
@@ -684,7 +731,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>29</v>
       </c>
@@ -698,7 +745,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>32</v>
       </c>
@@ -712,7 +759,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" ht="78.75" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>34</v>
       </c>
@@ -720,38 +767,99 @@
         <v>3</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="1" t="s">
+    </row>
+    <row r="17" spans="2:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>37</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>38</v>
       </c>
-      <c r="I17" t="s">
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="3:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
+    <row r="20" spans="2:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>40</v>
       </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I20" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
